--- a/src/predicciones/holt_winters/producto_49.xlsx
+++ b/src/predicciones/holt_winters/producto_49.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -384,6 +393,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,1265 +404,1265 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44933</v>
       </c>
       <c r="B2">
-        <v>1.164764435337688</v>
+        <v>1.010201402180905</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>44944</v>
       </c>
       <c r="B3">
-        <v>1.017187730388531</v>
+        <v>1.010343597805182</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>44945</v>
       </c>
       <c r="B4">
-        <v>1.928427677113364</v>
+        <v>2.010487230835764</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>44947</v>
       </c>
       <c r="B5">
-        <v>0.9084615733810715</v>
+        <v>1.010632293230031</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>44949</v>
       </c>
       <c r="B6">
-        <v>1.912372749019183</v>
+        <v>2.010691986570103</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>44952</v>
       </c>
       <c r="B7">
-        <v>0.8458478772422687</v>
+        <v>1.0107107604475</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="A8" s="2">
+        <v>44954</v>
       </c>
       <c r="B8">
-        <v>1.322129118146513</v>
+        <v>1.020834783020385</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="A9" s="2">
+        <v>44955</v>
       </c>
       <c r="B9">
-        <v>1.165883755412088</v>
+        <v>1.020975537662116</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
+      <c r="A10" s="2">
+        <v>44958</v>
       </c>
       <c r="B10">
-        <v>1.01830705046293</v>
+        <v>1.021117733286394</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
+      <c r="A11" s="2">
+        <v>44960</v>
       </c>
       <c r="B11">
-        <v>1.929546997187763</v>
+        <v>2.021261366316975</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="A12" s="2">
+        <v>44965</v>
       </c>
       <c r="B12">
-        <v>0.909580893455471</v>
+        <v>1.021406428711243</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
+      <c r="A13" s="2">
+        <v>44969</v>
       </c>
       <c r="B13">
-        <v>1.913492069093582</v>
+        <v>2.021466122051315</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
+      <c r="A14" s="2">
+        <v>44973</v>
       </c>
       <c r="B14">
-        <v>0.8469671973166685</v>
+        <v>1.021484895928711</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
+      <c r="A15" s="2">
+        <v>44975</v>
       </c>
       <c r="B15">
-        <v>1.323248438220913</v>
+        <v>1.031608918501597</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
+      <c r="A16" s="2">
+        <v>44977</v>
       </c>
       <c r="B16">
-        <v>1.167003075486487</v>
+        <v>1.031749673143328</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
+      <c r="A17" s="2">
+        <v>44978</v>
       </c>
       <c r="B17">
-        <v>1.01942637053733</v>
+        <v>1.031891868767605</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
+      <c r="A18" s="2">
+        <v>44980</v>
       </c>
       <c r="B18">
-        <v>1.930666317262163</v>
+        <v>2.032035501798186</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
+      <c r="A19" s="2">
+        <v>44985</v>
       </c>
       <c r="B19">
-        <v>0.9107002135298705</v>
+        <v>1.032180564192454</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
+      <c r="A20" s="2">
+        <v>44992</v>
       </c>
       <c r="B20">
-        <v>1.914611389167982</v>
+        <v>2.032240257532526</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
+      <c r="A21" s="2">
+        <v>44998</v>
       </c>
       <c r="B21">
-        <v>0.848086517391068</v>
+        <v>1.032259031409922</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
+      <c r="A22" s="2">
+        <v>45004</v>
       </c>
       <c r="B22">
-        <v>1.324367758295312</v>
+        <v>1.042383053982808</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
+      <c r="A23" s="2">
+        <v>45006</v>
       </c>
       <c r="B23">
-        <v>1.168122395560887</v>
+        <v>1.042523808624539</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
+      <c r="A24" s="2">
+        <v>45007</v>
       </c>
       <c r="B24">
-        <v>1.020545690611729</v>
+        <v>1.042666004248817</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
+      <c r="A25" s="2">
+        <v>45010</v>
       </c>
       <c r="B25">
-        <v>1.931785637336563</v>
+        <v>2.042809637279398</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
+      <c r="A26" s="2">
+        <v>45014</v>
       </c>
       <c r="B26">
-        <v>0.91181953360427</v>
+        <v>1.042954699673665</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
+      <c r="A27" s="2">
+        <v>45015</v>
       </c>
       <c r="B27">
-        <v>1.915730709242381</v>
+        <v>2.043014393013737</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
+      <c r="A28" s="2">
+        <v>45017</v>
       </c>
       <c r="B28">
-        <v>0.8492058374654675</v>
+        <v>1.043033166891134</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
+      <c r="A29" s="2">
+        <v>45020</v>
       </c>
       <c r="B29">
-        <v>1.325487078369712</v>
+        <v>1.053157189464019</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
+      <c r="A30" s="2">
+        <v>45021</v>
       </c>
       <c r="B30">
-        <v>1.169241715635286</v>
+        <v>1.053297944105751</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
+      <c r="A31" s="2">
+        <v>45025</v>
       </c>
       <c r="B31">
-        <v>1.021665010686129</v>
+        <v>1.053440139730028</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
+      <c r="A32" s="2">
+        <v>45030</v>
       </c>
       <c r="B32">
-        <v>1.932904957410962</v>
+        <v>2.053583772760609</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
+      <c r="A33" s="2">
+        <v>45031</v>
       </c>
       <c r="B33">
-        <v>0.9129388536786696</v>
+        <v>1.053728835154877</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
+      <c r="A34" s="2">
+        <v>45032</v>
       </c>
       <c r="B34">
-        <v>1.916850029316781</v>
+        <v>2.053788528494949</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
+      <c r="A35" s="2">
+        <v>45033</v>
       </c>
       <c r="B35">
-        <v>0.850325157539867</v>
+        <v>1.053807302372345</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
+      <c r="A36" s="2">
+        <v>45039</v>
       </c>
       <c r="B36">
-        <v>1.326606398444111</v>
+        <v>1.063931324945231</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
+      <c r="A37" s="2">
+        <v>45040</v>
       </c>
       <c r="B37">
-        <v>1.170361035709686</v>
+        <v>1.064072079586962</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
+      <c r="A38" s="2">
+        <v>45041</v>
       </c>
       <c r="B38">
-        <v>1.022784330760528</v>
+        <v>1.064214275211239</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
+      <c r="A39" s="2">
+        <v>45044</v>
       </c>
       <c r="B39">
-        <v>1.934024277485362</v>
+        <v>2.064357908241821</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
+      <c r="A40" s="2">
+        <v>45051</v>
       </c>
       <c r="B40">
-        <v>0.9140581737530693</v>
+        <v>1.064502970636088</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
+      <c r="A41" s="2">
+        <v>45052</v>
       </c>
       <c r="B41">
-        <v>1.91796934939118</v>
+        <v>2.06456266397616</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
+      <c r="A42" s="2">
+        <v>45054</v>
       </c>
       <c r="B42">
-        <v>0.8514444776142666</v>
+        <v>1.064581437853557</v>
       </c>
       <c r="C42">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
+      <c r="A43" s="2">
+        <v>45060</v>
       </c>
       <c r="B43">
-        <v>1.327725718518511</v>
+        <v>1.074705460426442</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
+      <c r="A44" s="2">
+        <v>45061</v>
       </c>
       <c r="B44">
-        <v>1.171480355784085</v>
+        <v>1.074846215068173</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
+      <c r="A45" s="2">
+        <v>45066</v>
       </c>
       <c r="B45">
-        <v>1.023903650834928</v>
+        <v>1.074988410692451</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
+      <c r="A46" s="2">
+        <v>45072</v>
       </c>
       <c r="B46">
-        <v>1.935143597559761</v>
+        <v>2.075132043723032</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
+      <c r="A47" s="2">
+        <v>45080</v>
       </c>
       <c r="B47">
-        <v>0.9151774938274688</v>
+        <v>1.0752771061173</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
+      <c r="A48" s="2">
+        <v>45082</v>
       </c>
       <c r="B48">
-        <v>1.91908866946558</v>
+        <v>2.075336799457371</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
+      <c r="A49" s="2">
+        <v>45092</v>
       </c>
       <c r="B49">
-        <v>0.8525637976886661</v>
+        <v>1.075355573334768</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
+      <c r="A50" s="2">
+        <v>45094</v>
       </c>
       <c r="B50">
-        <v>1.32884503859291</v>
+        <v>1.085479595907654</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
+      <c r="A51" s="2">
+        <v>45102</v>
       </c>
       <c r="B51">
-        <v>1.172599675858485</v>
+        <v>1.085620350549385</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
+      <c r="A52" s="2">
+        <v>45105</v>
       </c>
       <c r="B52">
-        <v>1.025022970909327</v>
+        <v>1.085762546173662</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
+      <c r="A53" s="2">
+        <v>45106</v>
       </c>
       <c r="B53">
-        <v>1.936262917634161</v>
+        <v>2.085906179204243</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
+      <c r="A54" s="2">
+        <v>45109</v>
       </c>
       <c r="B54">
-        <v>0.9162968139018683</v>
+        <v>1.086051241598511</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
+      <c r="A55" s="2">
+        <v>45113</v>
       </c>
       <c r="B55">
-        <v>1.920207989539979</v>
+        <v>2.086110934938583</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
+      <c r="A56" s="2">
+        <v>45117</v>
       </c>
       <c r="B56">
-        <v>0.8536831177630656</v>
+        <v>1.086129708815979</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>55</v>
+      <c r="A57" s="2">
+        <v>45124</v>
       </c>
       <c r="B57">
-        <v>1.32996435866731</v>
+        <v>1.096253731388865</v>
       </c>
       <c r="C57">
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>56</v>
+      <c r="A58" s="2">
+        <v>45125</v>
       </c>
       <c r="B58">
-        <v>1.173718995932884</v>
+        <v>1.096394486030596</v>
       </c>
       <c r="C58">
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>57</v>
+      <c r="A59" s="2">
+        <v>45127</v>
       </c>
       <c r="B59">
-        <v>1.026142290983727</v>
+        <v>1.096536681654874</v>
       </c>
       <c r="C59">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>58</v>
+      <c r="A60" s="2">
+        <v>45129</v>
       </c>
       <c r="B60">
-        <v>1.93738223770856</v>
+        <v>2.096680314685455</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>59</v>
+      <c r="A61" s="2">
+        <v>45132</v>
       </c>
       <c r="B61">
-        <v>0.9174161339762679</v>
+        <v>1.096825377079722</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>60</v>
+      <c r="A62" s="2">
+        <v>45144</v>
       </c>
       <c r="B62">
-        <v>1.921327309614379</v>
+        <v>2.096885070419795</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="1">
-        <v>61</v>
+      <c r="A63" s="2">
+        <v>45151</v>
       </c>
       <c r="B63">
-        <v>0.8548024378374651</v>
+        <v>1.096903844297191</v>
       </c>
       <c r="C63">
         <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="1">
-        <v>62</v>
+      <c r="A64" s="2">
+        <v>45159</v>
       </c>
       <c r="B64">
-        <v>1.33108367874171</v>
+        <v>1.107027866870076</v>
       </c>
       <c r="C64">
         <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="1">
-        <v>63</v>
+      <c r="A65" s="2">
+        <v>45162</v>
       </c>
       <c r="B65">
-        <v>1.174838316007284</v>
+        <v>1.107168621511808</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="1">
-        <v>64</v>
+      <c r="A66" s="2">
+        <v>45164</v>
       </c>
       <c r="B66">
-        <v>1.027261611058127</v>
+        <v>1.107310817136085</v>
       </c>
       <c r="C66">
         <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="1">
-        <v>65</v>
+      <c r="A67" s="2">
+        <v>45165</v>
       </c>
       <c r="B67">
-        <v>1.93850155778296</v>
+        <v>2.107454450166666</v>
       </c>
       <c r="C67">
         <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="1">
-        <v>66</v>
+      <c r="A68" s="2">
+        <v>45166</v>
       </c>
       <c r="B68">
-        <v>0.9185354540506674</v>
+        <v>1.107599512560934</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="1">
-        <v>67</v>
+      <c r="A69" s="2">
+        <v>45167</v>
       </c>
       <c r="B69">
-        <v>1.922446629688778</v>
+        <v>2.107659205901006</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="1">
-        <v>68</v>
+      <c r="A70" s="2">
+        <v>45172</v>
       </c>
       <c r="B70">
-        <v>0.8559217579118646</v>
+        <v>1.107677979778402</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="1">
-        <v>69</v>
+      <c r="A71" s="2">
+        <v>45179</v>
       </c>
       <c r="B71">
-        <v>1.332202998816109</v>
+        <v>1.117802002351288</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="1">
-        <v>70</v>
+      <c r="A72" s="2">
+        <v>45180</v>
       </c>
       <c r="B72">
-        <v>1.175957636081683</v>
+        <v>1.117942756993019</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="1">
-        <v>71</v>
+      <c r="A73" s="2">
+        <v>45181</v>
       </c>
       <c r="B73">
-        <v>1.028380931132526</v>
+        <v>1.118084952617297</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="1">
-        <v>72</v>
+      <c r="A74" s="2">
+        <v>45186</v>
       </c>
       <c r="B74">
-        <v>1.939620877857359</v>
+        <v>2.118228585647878</v>
       </c>
       <c r="C74">
         <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="1">
-        <v>73</v>
+      <c r="A75" s="2">
+        <v>45190</v>
       </c>
       <c r="B75">
-        <v>0.9196547741250669</v>
+        <v>1.118373648042145</v>
       </c>
       <c r="C75">
         <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="1">
-        <v>74</v>
+      <c r="A76" s="2">
+        <v>45192</v>
       </c>
       <c r="B76">
-        <v>1.923565949763178</v>
+        <v>2.118433341382217</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="1">
-        <v>75</v>
+      <c r="A77" s="2">
+        <v>45193</v>
       </c>
       <c r="B77">
-        <v>0.8570410779862642</v>
+        <v>1.118452115259614</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="1">
-        <v>76</v>
+      <c r="A78" s="2">
+        <v>45197</v>
       </c>
       <c r="B78">
-        <v>1.333322318890509</v>
+        <v>1.128576137832499</v>
       </c>
       <c r="C78">
         <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="1">
-        <v>77</v>
+      <c r="A79" s="2">
+        <v>45203</v>
       </c>
       <c r="B79">
-        <v>1.177076956156083</v>
+        <v>1.12871689247423</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="1">
-        <v>78</v>
+      <c r="A80" s="2">
+        <v>45210</v>
       </c>
       <c r="B80">
-        <v>1.029500251206926</v>
+        <v>1.128859088098508</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="1">
-        <v>79</v>
+      <c r="A81" s="2">
+        <v>45211</v>
       </c>
       <c r="B81">
-        <v>1.940740197931759</v>
+        <v>2.129002721129089</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="1">
-        <v>80</v>
+      <c r="A82" s="2">
+        <v>45212</v>
       </c>
       <c r="B82">
-        <v>0.9207740941994664</v>
+        <v>1.129147783523357</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="1">
-        <v>81</v>
+      <c r="A83" s="2">
+        <v>45214</v>
       </c>
       <c r="B83">
-        <v>1.924685269837577</v>
+        <v>2.129207476863429</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="1">
-        <v>82</v>
+      <c r="A84" s="2">
+        <v>45219</v>
       </c>
       <c r="B84">
-        <v>0.8581603980606637</v>
+        <v>1.129226250740825</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="1">
-        <v>83</v>
+      <c r="A85" s="2">
+        <v>45221</v>
       </c>
       <c r="B85">
-        <v>1.334441638964909</v>
+        <v>1.139350273313711</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="1">
-        <v>84</v>
+      <c r="A86" s="2">
+        <v>45222</v>
       </c>
       <c r="B86">
-        <v>1.178196276230482</v>
+        <v>1.139491027955442</v>
       </c>
       <c r="C86">
         <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="1">
-        <v>85</v>
+      <c r="A87" s="2">
+        <v>45223</v>
       </c>
       <c r="B87">
-        <v>1.030619571281325</v>
+        <v>1.13963322357972</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="1">
-        <v>86</v>
+      <c r="A88" s="2">
+        <v>45224</v>
       </c>
       <c r="B88">
-        <v>1.941859518006158</v>
+        <v>2.1397768566103</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="1">
-        <v>87</v>
+      <c r="A89" s="2">
+        <v>45225</v>
       </c>
       <c r="B89">
-        <v>0.921893414273866</v>
+        <v>1.139921919004568</v>
       </c>
       <c r="C89">
         <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="1">
-        <v>88</v>
+      <c r="A90" s="2">
+        <v>45228</v>
       </c>
       <c r="B90">
-        <v>1.925804589911977</v>
+        <v>2.13998161234464</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="1">
-        <v>89</v>
+      <c r="A91" s="2">
+        <v>45232</v>
       </c>
       <c r="B91">
-        <v>0.8592797181350632</v>
+        <v>1.140000386222036</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="1">
-        <v>90</v>
+      <c r="A92" s="2">
+        <v>45238</v>
       </c>
       <c r="B92">
-        <v>1.335560959039308</v>
+        <v>1.150124408794922</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="1">
-        <v>91</v>
+      <c r="A93" s="2">
+        <v>45240</v>
       </c>
       <c r="B93">
-        <v>1.179315596304882</v>
+        <v>1.150265163436653</v>
       </c>
       <c r="C93">
         <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="1">
-        <v>92</v>
+      <c r="A94" s="2">
+        <v>45242</v>
       </c>
       <c r="B94">
-        <v>1.031738891355725</v>
+        <v>1.150407359060931</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="1">
-        <v>93</v>
+      <c r="A95" s="2">
+        <v>45244</v>
       </c>
       <c r="B95">
-        <v>1.942978838080558</v>
+        <v>2.150550992091512</v>
       </c>
       <c r="C95">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="1">
-        <v>94</v>
+      <c r="A96" s="2">
+        <v>45249</v>
       </c>
       <c r="B96">
-        <v>0.9230127343482655</v>
+        <v>1.15069605448578</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="1">
-        <v>95</v>
+      <c r="A97" s="2">
+        <v>45251</v>
       </c>
       <c r="B97">
-        <v>1.926923909986377</v>
+        <v>2.150755747825851</v>
       </c>
       <c r="C97">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="1">
-        <v>96</v>
+      <c r="A98" s="2">
+        <v>45252</v>
       </c>
       <c r="B98">
-        <v>0.8603990382094627</v>
+        <v>1.150774521703248</v>
       </c>
       <c r="C98">
         <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="1">
-        <v>97</v>
+      <c r="A99" s="2">
+        <v>45254</v>
       </c>
       <c r="B99">
-        <v>1.336680279113708</v>
+        <v>1.160898544276133</v>
       </c>
       <c r="C99">
         <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="1">
-        <v>98</v>
+      <c r="A100" s="2">
+        <v>45256</v>
       </c>
       <c r="B100">
-        <v>1.180434916379281</v>
+        <v>1.161039298917865</v>
       </c>
       <c r="C100">
         <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="1">
-        <v>99</v>
+      <c r="A101" s="2">
+        <v>45260</v>
       </c>
       <c r="B101">
-        <v>1.032858211430124</v>
+        <v>1.161181494542142</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="1">
-        <v>100</v>
+      <c r="A102" s="2">
+        <v>45270</v>
       </c>
       <c r="B102">
-        <v>1.944098158154957</v>
+        <v>2.161325127572723</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="1">
-        <v>101</v>
+      <c r="A103" s="2">
+        <v>45271</v>
       </c>
       <c r="B103">
-        <v>0.924132054422665</v>
+        <v>1.161470189966991</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="1">
-        <v>102</v>
+      <c r="A104" s="2">
+        <v>45275</v>
       </c>
       <c r="B104">
-        <v>1.928043230060776</v>
+        <v>2.161529883307063</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="1">
-        <v>103</v>
+      <c r="A105" s="2">
+        <v>45276</v>
       </c>
       <c r="B105">
-        <v>0.8615183582838623</v>
+        <v>1.161548657184459</v>
       </c>
       <c r="C105">
         <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="1">
-        <v>104</v>
+      <c r="A106" s="2">
+        <v>45277</v>
       </c>
       <c r="B106">
-        <v>1.337799599188107</v>
+        <v>1.171672679757345</v>
       </c>
       <c r="C106">
         <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="1">
-        <v>105</v>
+      <c r="A107" s="2">
+        <v>45291</v>
       </c>
       <c r="B107">
-        <v>1.181554236453681</v>
+        <v>1.171813434399076</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="1">
-        <v>106</v>
+      <c r="A108" s="2">
+        <v>45298</v>
       </c>
       <c r="B108">
-        <v>1.033977531504524</v>
+        <v>1.171955630023354</v>
       </c>
       <c r="C108">
         <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="1">
-        <v>107</v>
+      <c r="A109" s="2">
+        <v>45300</v>
       </c>
       <c r="B109">
-        <v>1.945217478229357</v>
+        <v>2.172099263053935</v>
       </c>
       <c r="C109">
         <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="1">
-        <v>108</v>
+      <c r="A110" s="2">
+        <v>45305</v>
       </c>
       <c r="B110">
-        <v>0.9252513744970645</v>
+        <v>1.172244325448202</v>
       </c>
       <c r="C110">
         <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="1">
-        <v>109</v>
+      <c r="A111" s="2">
+        <v>45310</v>
       </c>
       <c r="B111">
-        <v>1.929162550135176</v>
+        <v>2.172304018788275</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="1">
-        <v>110</v>
+      <c r="A112" s="2">
+        <v>45311</v>
       </c>
       <c r="B112">
-        <v>0.8626376783582618</v>
+        <v>1.172322792665671</v>
       </c>
       <c r="C112">
         <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="1">
-        <v>111</v>
+      <c r="A113" s="2">
+        <v>45314</v>
       </c>
       <c r="B113">
-        <v>1.338918919262507</v>
+        <v>1.182446815238556</v>
       </c>
       <c r="C113">
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="1">
-        <v>112</v>
+      <c r="A114" s="2">
+        <v>45316</v>
       </c>
       <c r="B114">
-        <v>1.18267355652808</v>
+        <v>1.182587569880287</v>
       </c>
       <c r="C114">
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="1">
-        <v>113</v>
+      <c r="A115" s="2">
+        <v>45323</v>
       </c>
       <c r="B115">
-        <v>1.035096851578923</v>
+        <v>1.182729765504565</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="1">
-        <v>114</v>
+      <c r="A116" s="2">
+        <v>45325</v>
       </c>
       <c r="B116">
-        <v>1.946336798303756</v>
+        <v>2.182873398535146</v>
       </c>
       <c r="C116">
         <v>1</v>
